--- a/Data/National territory all sectors (macro area and region).xlsx
+++ b/Data/National territory all sectors (macro area and region).xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/albertocalabrese99/Desktop/Statistical learning/Statistical_Learning_Project/Data/Cleaned data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/albertocalabrese99/Desktop/Statistical learning/Statistical_Learning_Project/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35DCE7BA-B9E2-9649-B728-F1D0C9A335D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F6FD475-8B6B-2143-906D-39DFF12DEC54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19420" activeTab="2" xr2:uid="{1F1F6805-2FDB-8F4F-9065-46E49BB6E294}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19420" xr2:uid="{1F1F6805-2FDB-8F4F-9065-46E49BB6E294}"/>
   </bookViews>
   <sheets>
     <sheet name="Numero spettacoli" sheetId="3" r:id="rId1"/>
@@ -39,9 +39,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="21">
   <si>
-    <t>Regione</t>
-  </si>
-  <si>
     <t>Liguria</t>
   </si>
   <si>
@@ -100,6 +97,9 @@
   </si>
   <si>
     <t>Sicilia</t>
+  </si>
+  <si>
+    <t>Region</t>
   </si>
 </sst>
 </file>
@@ -471,17 +471,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{201C2995-3A2A-3148-8866-986C366911DB}">
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:AC21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="B1">
         <v>2018</v>
@@ -499,9 +499,9 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B2">
         <v>118301</v>
@@ -519,9 +519,9 @@
         <v>68486</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B3">
         <v>25059</v>
@@ -539,9 +539,9 @@
         <v>18959</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B4">
         <v>51905</v>
@@ -559,9 +559,9 @@
         <v>39966</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B5">
         <v>292109</v>
@@ -578,10 +578,30 @@
       <c r="F5">
         <v>193996</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1"/>
+      <c r="S5" s="1"/>
+      <c r="T5" s="1"/>
+      <c r="U5" s="1"/>
+      <c r="V5" s="1"/>
+      <c r="W5" s="1"/>
+      <c r="X5" s="1"/>
+      <c r="Y5" s="1"/>
+      <c r="Z5" s="1"/>
+      <c r="AA5" s="1"/>
+      <c r="AB5" s="1"/>
+      <c r="AC5" s="1"/>
+    </row>
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
         <v>378127</v>
@@ -598,10 +618,30 @@
       <c r="F6">
         <v>274525</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1"/>
+      <c r="S6" s="1"/>
+      <c r="T6" s="1"/>
+      <c r="U6" s="1"/>
+      <c r="V6" s="1"/>
+      <c r="W6" s="1"/>
+      <c r="X6" s="1"/>
+      <c r="Y6" s="1"/>
+      <c r="Z6" s="1"/>
+      <c r="AA6" s="1"/>
+      <c r="AB6" s="1"/>
+      <c r="AC6" s="1"/>
+    </row>
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
         <v>119786</v>
@@ -619,9 +659,9 @@
         <v>85600</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B8">
         <v>550120</v>
@@ -639,9 +679,9 @@
         <v>370203</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B9">
         <v>130140</v>
@@ -659,9 +699,9 @@
         <v>90358</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B10">
         <v>768073</v>
@@ -679,9 +719,9 @@
         <v>565724</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
         <v>154343</v>
@@ -699,9 +739,9 @@
         <v>86463</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B12">
         <v>10602</v>
@@ -719,9 +759,9 @@
         <v>5928</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B13">
         <v>331618</v>
@@ -739,9 +779,9 @@
         <v>228011</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B14">
         <v>231741</v>
@@ -759,9 +799,9 @@
         <v>186002</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B15">
         <v>92365</v>
@@ -779,9 +819,9 @@
         <v>75003</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B16">
         <v>255277</v>
@@ -801,7 +841,7 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B17">
         <v>331948</v>
@@ -821,7 +861,7 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B18">
         <v>61300</v>
@@ -841,7 +881,7 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B19">
         <v>80772</v>
@@ -861,7 +901,7 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B20">
         <v>11966</v>
@@ -881,7 +921,7 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B21">
         <v>320965</v>
@@ -912,14 +952,14 @@
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="B1">
         <v>2018</v>
@@ -939,7 +979,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B2">
         <v>3675222</v>
@@ -959,7 +999,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B3">
         <v>807390</v>
@@ -979,7 +1019,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B4">
         <v>2170442</v>
@@ -999,7 +1039,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B5">
         <v>12434989</v>
@@ -1019,7 +1059,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
         <v>27006871</v>
@@ -1039,7 +1079,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
         <v>4923301</v>
@@ -1059,7 +1099,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B8">
         <v>28088638</v>
@@ -1079,7 +1119,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B9">
         <v>6221673</v>
@@ -1099,7 +1139,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B10">
         <v>49065736</v>
@@ -1119,7 +1159,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
         <v>6187726</v>
@@ -1139,7 +1179,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B12">
         <v>256820</v>
@@ -1159,7 +1199,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B13">
         <v>18870695</v>
@@ -1179,7 +1219,7 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B14">
         <v>9868279</v>
@@ -1199,7 +1239,7 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B15">
         <v>3579070</v>
@@ -1219,7 +1259,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B16">
         <v>11188633</v>
@@ -1239,7 +1279,7 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B17">
         <v>18224944</v>
@@ -1259,7 +1299,7 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B18">
         <v>3253799</v>
@@ -1279,7 +1319,7 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B19">
         <v>3435600</v>
@@ -1299,7 +1339,7 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B20">
         <v>462586</v>
@@ -1319,7 +1359,7 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B21">
         <v>23107859</v>
@@ -1349,15 +1389,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5574F145-D58C-B849-A2D0-BC4F97B71DC5}">
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="B1">
         <v>2018</v>
@@ -1377,7 +1417,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B2">
         <v>51087646.329999998</v>
@@ -1397,7 +1437,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B3">
         <v>22039834.439999994</v>
@@ -1417,7 +1457,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B4">
         <v>46216070.620000005</v>
@@ -1437,7 +1477,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B5">
         <v>231119093</v>
@@ -1457,7 +1497,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
         <v>499293667.31</v>
@@ -1477,7 +1517,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
         <v>102534095.71000001</v>
@@ -1497,7 +1537,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B8">
         <v>461720643.9600001</v>
@@ -1517,7 +1557,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B9">
         <v>205714854.03999996</v>
@@ -1537,7 +1577,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B10">
         <v>1173571464.1399999</v>
@@ -1557,7 +1597,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
         <v>106987385.95</v>
@@ -1577,7 +1617,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B12">
         <v>3966274.2399999998</v>
@@ -1597,7 +1637,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B13">
         <v>413394053.68000007</v>
@@ -1617,7 +1657,7 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B14">
         <v>176629513.20999998</v>
@@ -1637,7 +1677,7 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B15">
         <v>75222316.579999998</v>
@@ -1657,7 +1697,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B16">
         <v>174842282.74000001</v>
@@ -1677,7 +1717,7 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B17">
         <v>328999577.04000002</v>
@@ -1697,7 +1737,7 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B18">
         <v>92398180.929999992</v>
@@ -1717,7 +1757,7 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B19">
         <v>57022114.240000002</v>
@@ -1737,7 +1777,7 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B20">
         <v>8142051.2199999988</v>
@@ -1757,7 +1797,7 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B21">
         <v>619967727.64999998</v>
